--- a/ReportData/ReportData_Jatin.xlsx
+++ b/ReportData/ReportData_Jatin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DD0F4C-494C-45F2-9D62-B43343D6B9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B39532-DA9A-448A-B619-5C6D743111E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2740" yWindow="1400" windowWidth="14400" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Project_Name</t>
   </si>
   <si>
-    <t>BCM - Manager Portal</t>
-  </si>
-  <si>
     <t>Last Report Sent</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t>Report_Title</t>
   </si>
   <si>
-    <t>Project Health Report</t>
-  </si>
-  <si>
     <t>BarGraph_show</t>
   </si>
   <si>
@@ -50,15 +44,9 @@
     <t>BarGraph_color</t>
   </si>
   <si>
-    <t>coral</t>
-  </si>
-  <si>
     <t>Report_Name</t>
   </si>
   <si>
-    <t>WeeklyReport</t>
-  </si>
-  <si>
     <t>Email_From</t>
   </si>
   <si>
@@ -71,15 +59,9 @@
     <t>Email_Subject</t>
   </si>
   <si>
-    <t>Weekly Project Health Report</t>
-  </si>
-  <si>
     <t>Email_Content</t>
   </si>
   <si>
-    <t>Please find attached weekly report</t>
-  </si>
-  <si>
     <t>GoogleAppCode</t>
   </si>
   <si>
@@ -107,12 +89,6 @@
     <t>https://www.google.com/</t>
   </si>
   <si>
-    <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available</t>
-  </si>
-  <si>
-    <t>This is a dummy text</t>
-  </si>
-  <si>
     <t>["neerajpebma0@gmail.com"]</t>
   </si>
   <si>
@@ -129,6 +105,40 @@
   </si>
   <si>
     <t>Approvals1</t>
+  </si>
+  <si>
+    <t>This is a dummy text 1</t>
+  </si>
+  <si>
+    <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available 1
+This is a dummy text 1</t>
+  </si>
+  <si>
+    <t>This is a dummy text 2</t>
+  </si>
+  <si>
+    <t>This is a dummy text 3</t>
+  </si>
+  <si>
+    <t>This is a dummy text 4</t>
+  </si>
+  <si>
+    <t>BCM - Manager Portal 1</t>
+  </si>
+  <si>
+    <t>Project Health Report 1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>WeeklyReport1</t>
+  </si>
+  <si>
+    <t>Weekly Project Health Report 1</t>
+  </si>
+  <si>
+    <t>Please find attached weekly report 1</t>
   </si>
 </sst>
 </file>
@@ -482,7 +492,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -498,93 +508,93 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +607,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -613,86 +623,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">

--- a/ReportData/ReportData_Jatin.xlsx
+++ b/ReportData/ReportData_Jatin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B39532-DA9A-448A-B619-5C6D743111E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150B85C-681E-49BD-84CE-025B8745C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1400" windowWidth="14400" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Project_Name</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Please find attached weekly report 1</t>
+  </si>
+  <si>
+    <t>Project_Status</t>
+  </si>
+  <si>
+    <t>On Track</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -527,78 +533,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wronf input, choose from drop down" sqref="B3" xr:uid="{EAB0E8DA-7E02-47D7-BD76-0644E98ACC88}">
+      <formula1>"On Track, Off Track, Concerned"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -606,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/ReportData/ReportData_Jatin.xlsx
+++ b/ReportData/ReportData_Jatin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150B85C-681E-49BD-84CE-025B8745C541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52EC94-07AE-4DAC-AA0A-7490B416B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>Project_Status</t>
   </si>
   <si>
-    <t>On Track</t>
+    <t>Off Track</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/ReportData/ReportData_Jatin.xlsx
+++ b/ReportData/ReportData_Jatin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\Reporting\ReportData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52EC94-07AE-4DAC-AA0A-7490B416B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC76CE4-DE9D-4833-88E8-19E24EAC7308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>BarGraph_show</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>BarGraph_color</t>
   </si>
   <si>
@@ -110,41 +107,45 @@
     <t>This is a dummy text 1</t>
   </si>
   <si>
+    <t>This is a dummy text 2</t>
+  </si>
+  <si>
+    <t>This is a dummy text 3</t>
+  </si>
+  <si>
+    <t>This is a dummy text 4</t>
+  </si>
+  <si>
+    <t>BCM - Manager Portal 1</t>
+  </si>
+  <si>
+    <t>Project Health Report 1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>WeeklyReport1</t>
+  </si>
+  <si>
+    <t>Weekly Project Health Report 1</t>
+  </si>
+  <si>
+    <t>Please find attached weekly report 1</t>
+  </si>
+  <si>
+    <t>Project_Status</t>
+  </si>
+  <si>
+    <t>Off Track</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>In publishing and graphic design, Lorem ipsum is a placeholder text commonly used to demonstrate the visual form of a document or a typeface without relying on meaningful content. Lorem ipsum may be used as a placeholder before final copy is available 1
+Lorem ipsum may be used as a placeholder before final copy is available 1
 This is a dummy text 1</t>
-  </si>
-  <si>
-    <t>This is a dummy text 2</t>
-  </si>
-  <si>
-    <t>This is a dummy text 3</t>
-  </si>
-  <si>
-    <t>This is a dummy text 4</t>
-  </si>
-  <si>
-    <t>BCM - Manager Portal 1</t>
-  </si>
-  <si>
-    <t>Project Health Report 1</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>WeeklyReport1</t>
-  </si>
-  <si>
-    <t>Weekly Project Health Report 1</t>
-  </si>
-  <si>
-    <t>Please find attached weekly report 1</t>
-  </si>
-  <si>
-    <t>Project_Status</t>
-  </si>
-  <si>
-    <t>Off Track</t>
   </si>
 </sst>
 </file>
@@ -497,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -514,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -528,15 +529,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -544,77 +545,80 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wronf input, choose from drop down" sqref="B3" xr:uid="{EAB0E8DA-7E02-47D7-BD76-0644E98ACC88}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong input, choose from drop down" sqref="B3" xr:uid="{9E918E44-92AF-441D-98A0-F916B4CE0CA9}">
       <formula1>"On Track, Off Track, Concerned"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Wrong input, choose from drop down" sqref="B4" xr:uid="{9A2DC573-9945-463E-856B-74F3FA662D92}">
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -643,86 +647,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="59" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:4" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.75">
